--- a/TemplateFile/TreeSchAreaTreeCollection.xlsx
+++ b/TemplateFile/TreeSchAreaTreeCollection.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\EQC_NEW\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB038D-D43D-4F13-97F1-3618CBCF42AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C0185C-3C9D-45CD-A329-1842E306BDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="附件4-112年度植樹各月份預期種植面積表" sheetId="1" r:id="rId1"/>
+    <sheet name="年度植樹各月份預期種植面積表" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -354,12 +354,6 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,6 +401,12 @@
     </xf>
     <xf numFmtId="43" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -692,120 +692,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="28" style="15" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="23" style="16" customWidth="1"/>
-    <col min="9" max="18" width="26.28515625" style="16" customWidth="1"/>
-    <col min="19" max="20" width="30.5703125" style="16" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="33.7109375" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="10.140625" style="6"/>
+    <col min="1" max="1" width="11.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="28" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="23" style="14" customWidth="1"/>
+    <col min="9" max="18" width="26.28515625" style="14" customWidth="1"/>
+    <col min="19" max="20" width="30.5703125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" style="14" customWidth="1"/>
+    <col min="22" max="22" width="33.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="10.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="5" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" ht="182.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="182.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -822,35 +822,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F821446-0F48-4ACC-9E77-834978512C1E}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="20"/>
+    <row r="1" spans="1:22" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
